--- a/RegistroExcel/resultados.xlsx
+++ b/RegistroExcel/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,6 +1401,344 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fiz um teste genético de ancestralidade | Vocês já fizeram teste vocacional? | color vision test | Alan Tudyk Says He Got Dropped From ‘I, Robot’ Publicity After Testing Higher Than Will Smith With Test Screening Audiences | I'm sick of these purity tests. | Jack testing the weight limit on new farm equipment. | Who drug tests cooks, anyways? | Jack testing the weight limit on the new farm equipment | My bf’s allergy test. Tested for 72 things, allergic to 70. | Take the test and find out. | Oklahoma Mandates ‘America First’ Test | Honda experimental reusable rocket hop test | Testing a robot on live TV | Son’s math test | House numbers test w/ surface scan + print | Testing if my dog would save me | Stop the testing! | Wouldn’t pass the sobriety test | Smell Test | Testing Boomerangs with 1-6 Wings | The boys testing how deep this is | Kids really test your patience. | George's Taste Test | to test Lincon Heights | I took an IQ test | Pictures of Franco Colapinto’s Pirelli testing crash | Map of radioactive fallout in the USA from nuclear testing. I think it's interesting that the first test, Trinity, in New Mexico is visible. | Test | Man test : is this COOL? | I created this great test print which tests overhang and bed adhesion. What should I call it? | Firework power tested | testing his fucking faith | Famous Youtuber Captain Disillusion does a test to see if blurred images can be unblurred later. Someone passes his test and unblurs the blurred portion of the test image in 20 minutes.  | Acceleration test with no seatbelt | GPT-5 scored 70 on the offline IQ Test | joysOfAutomatedTesting | 1960’s literacy test | Lead test swabs I got turned red before I even tested the paint. | Human Cannonball Test Run | Didn’t pass the Bourdain test | Free fall lifeboat test | Jack testing the weight limit on the new farm equipment | Drug test has the "Street Names" | Brandon Miller needs to be drug tested bruh | Blursed_Test | Virat Kohli retired from test cricket | I was tested negative for aids | HUMAN sssdfg'ers captcha test [MANDATORY] | Bollard Test | "Uhm? I've taken a DNA test?" | OK Anti-Woke Test Will Be Ready Soon For Teachers | Testing a bulletproof car | Conor McGregor officially re-enters the testing pool | Roku tests autoplaying ads loading before the home screen | Users are unimpressed, eager to toss devices if test sticks. | Virat kohli retires from test cricket | Trump challenges Biden to a cognitive test but confuses the name of the doctor who tested him | No DNA test needed. | Hancock cosplay makeup test | [tribunaua] Mudryk fails doping test  | Rohit Sharma announces retirement from Tests | DNA  test | Testing nurses pee because…???? | losercity outfit test | I tried the iq test. This is my result | Test of loyalty: Technically she's single | Aero testing the Benchy | Declassified and upscaled nuclear test footages. | India has won just one Test match in the last nine Test games. | my allergy skin test from today | Alan Tudyk Says He Got Dropped From ‘I, Robot’ Publicity After Testing Higher Than Will Smith With Test Screening Audiences: ‘I Was Very Upset’ | Might need someone to test it out | Boeing 777-9X performing brake test | Developers want a poll: Release warbonds monthly or test them before release? I say delay monthly warbonds to allow for testing. | Anon gets their dna tested | 30,000 new test subjects | Lewis mum at the test today | Oklahoma Mandates ‘America First’ Test | No DNA test needed | IWillDominate talks about his experience testing out WASD | Marvel rivals blindness test | Let's Test Everyones Anime Knowledge | Hate standardized testing. So much. | These DNA test are just crazy... | anon takes dna test | Bro is testing his luck | AIO. The guy I am talking to (29) came to see me without getting tested after I asked and did my test as well. | Her tests will revolutionize public health! | AITAH for secretly DNA testing my daughter? | Air quality tests from my Airbnb where the host claimed not to smell any mold (control test on top). Support refused my refund. | THE CAR IS A LITMUS TEST | Testing farm equipment (not OC) | Rohit Sharma retires from Test cricket. | to pass the driving test | Yashasvi Jaiswal scores 101 off 159 in his first Test innings in England – 5th Test hundred overall | do not test | A successful bollard test | Crash Test ( decapitation at 25MPH) | tests | Black Student	Test Scores By US State | Helmet test ( for crash damage)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>testing, not, dna, of, crash, pictures, pirelli, colapintos, secretly, franco | test, the, testing, to, on, new, farm, equipment, limit, weight | test, the, dna, is, from, tested, to, and, first, in | test, my, from, in, the, tests, this, his, to, allergy | test, testing, with, robot, will, from, got, after, audiences, he</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5072480440139771</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Erro na requisição: 401 - {"error":{"message":"User not found.","code":401}}</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-08-24 18:55:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Teatro</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A energia do teatro brasileiro é outro nível. | La mia compagna di teatro fidanzatissima... cosa sta succedendo? | En el west dan obras de teatro?? | Teatro Nacional duda con los asientos  | teatro y actuación en panama | Alguno fue a ver Balboa en el Teatro Nacional? | This is what happened to the owner of the Piccolo Teatro | One of the rare, and imo the most unlikable Waitresses/Waiters in the entire series. | Ator agredido. Peça de teatro em Lisboa foi cancelada | Bahía Blanca, Av. Alem frente al teatro municipal | Teatro Bel Canto from Overwatch | Sou estudante de teatro musical e tive a oportunidade de conhecer um dos maiores ícones da profissão. | El Gobierno de la Ciudad de Buenos Aires pagó más de 12 millones de pesos para meter el Teatro Colón en el metaverso. | Esta mujer lleno un teatro haciendo esta pavada. El que no hace plata en este pais es porque no quiere. | VIDEO: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín | Ni siquiera asumió y "Milei basura vos sos la dictadura" en el teatro Colón. | The opening of a concert seen from the balcony of the Teatro San Carlo in Naples, It is the oldest continuously active venue for opera in the world, having opened in 1737.The piece played was Verdi's "La forza del destino". (credits:Alfredo Sicardi) | Outfit para el Teatro Colón | Fue teatro? Atentado a Kristina | SBT, a nova definição de empresa “compliance teatro” | Flamengo não perde para o Palmeiras fiu fiu no Allianz Teatro desde 2017 | Al final todo el teatro de Petro en redes sociales solo sirvió para darle un victoria propagandística a Trump y para hacerlo quedar a él como un payaso en frente de todos | Um remake é uma nova versão de uma obra anterior, como um filme, série, jogo, música, novela, peça de teatro, etc. Quais melhores Remake que vem a mente? | "O brasileiro é sem cultura e não gosta de teatro"; o que o brasileiro encontra tentando ir ao teatro: | Sou Babu Santana, ator de "Tim Maia", "Estômago" e "Cidade de Deus" e ex-BBB. AMA! | Teatro San Carlo - Napoli (by lucapetraglia.it) | Neonazis agridem violentamente ator que fazia de Camões em peça de teatro | É assim que funciona o teatro: a mídia não tá plantando manchete alarmista de graça. Essa história de “Trump vai punir o Brasil por causa do PIX” é só mais uma isca pra fazer o brasileiro médio criar ódio automático dos EUA, sem nem parar pra checar se faz sentido. | Torcida de Teatro | Teatro João Caetano throughout the centuries. The oldest theater in Rio, founded in 1813 by King D. João VI. Rio de Janeiro, RJ - Brazil | A minha escola fez uma peça de teatro, e no final deu esse caderninho feito por IA. | Javier Milei está planeando una obra de teatro de conducción propia en beneficio al Hospital Garrahan, que se llevaría a cabo en el Muro de Berlín | Quisieron abuchear a Milei en el teatro Colon y se les dio vuelta la tortilla | I went to Venice with low expectations, but I was proven wrong. Venice is a truly unique place | Quero achar quem é esse cara e oque ele tava fazendo ai, se ele tava em uma novela, filme, teatro, etc  | TEATRO DEL DIABLO 👿 | Qual a maior propaganda “made in USA” que você já engoliu? A minha: que eles “ganharam” a Segunda Guerra. | Anoche salimos del Teatro Coliseo y fuimos a comer pizza . Cuál es la mejor pizzería de Bs As? El cuartito estará en el top five? | Tropa de elite | llevare mis dibujos a pluma y color a un bazar a vender en el teatro de la ciudad donde vivo pero no se que precio ponerles, esperaba algun consejo de ustedes acerca de lo que estarían dispuestos a pagar por un dibujo tamaño carta, de ante mano muchas gracias! | What's your favourite song from Teatro d'ira: Vol. I? | Alguien me explica lo de la derogación de la Ley Nacional del Teatro? | Italian Lucchi Petraglia has recreated an exact replica of the Teatro San Carlo in Naples out of LEGOs | Paul Breitner, campeão mundial em 1974 pela Alemanha, agradece Al-Hilal por levar Neymar: “Obrigado, queridos sauditas, por ter comprado o senhor Neymar, que nos últimos anos foi um dos jogadores mais falsos debaixo do sol. Um dos grandes jogadores, mas que só fez teatro. Um falso micróbio. " | El teatro de la guerra ideológica | Professor mais fraco de teatro | Kada bi se Teatro Fenice vratio iz mrtvih i Rijeka vratila pješacima. Otprilike. Možda | O bolsonarismo é o maior teatro das tesouras que o Brasil já teve | ¿Los regios no vamos al teatro porque no nos enteramos de las funciones o porque no nos interesa? | Pedro Schuller, da Comissão Executiva da Iniciativa Liberal, sugere a privatização da RTP, Culturgest, Teatro Nacional D. Maria II, Cinemateca e "desfinanciar" a Faculdade de Ciências da Universidade de Lisboa | Bukele censura y cancela obra de teatro por ser de temática gay/LGBTQ+ | A rough view of what the Teatro Romano might have looked like. | ¿Por qué en México casi no hay foros, teatros, estadios o salas de conciertos en la mayoría de las ciudades? Cómo en la mayoría de ciudades yankes. | Me banearon de los eventos escolares de mi hijo | A pedido. Lamento muchisimo la longitud de esta obra de teatro surrealista. Hay varios caminos, elijan el que quieran y rianse de nuestro pobre intelectualoide, | Metro Bellas Artes, CDMX. Febrero 1985. El Teatro Hidalgo en el fondo fue derrumbado meses después por causa del terremoto. | Democracias contemporâneas são teatros com elenco fixo. | "Cuando volvamos, al Teatro Colon le vamos a poner "Teatro Nestor Kirchner" y al Centro Cultural: "Cristina Fernandez de Kirchner" " | "El presidente Petro está más interesado en hacer teatro y hablar sobre la paz total de lo que realmente está en cumplir cosas y eso es una tragedia"(James Robinson, 2024) | Priscilla for Teatro Bellini | Quiero empezar a dirigir teatro y cine independiente en CDMX, ¿alguien quiere crear desde cero conmigo? | "Incertidumbre financiera" obliga a la U. Mayor a suspender matrícula de ocho carreras en 2026: turismo, pedagogías, ingenierías y teatro entre las afectadas | Pegue uma trama terrível e coloque um rapper que nunca fez teatro como protagonista. Não tem erro! | Alguien sabe por qué cerraron plaza de Liberación y teatro Degollado ? | PAREM DE SE COMPORTAR COMO CRIANÇAS NO TEATRO | no sabia que ahora estaba en teatros | Desocupação do Teatro de Conteiner, por @teatrodeconteiner | Massini: 'Teatro della Toscana declassato per darmi una lezione'. In 300 a Firenze alla presentazione del programma, Funaro: 'Da destra bullismo istituzionale' | É bizarra a diferença entre o "Show do Milhão" do SBT e "Quem quer ser um milionário" da Globo | Tanto teatro para nada! | Foto durante a Copa do Mundo de 1970 no México, mostrando um cartaz de um teatro na cidade de Guadalajara que diz: "Hoje não trabalhamos porque vamos ver o Pelé!", | Katheryn attends the Italian Global Series Festival 2025 at Teatro Galli in Rimini, Italy - IG June 2025 | Scammer girl of Teatro | The Teatro Amazonas [OC] | Muerte de carabinero en Teatro Caupolicán: detienen a colega que le habría disparado | Javier Milei fue Abucheado y aplaudido por diferentes sectores del teatro colon. | Ator agredido em peça de teatro pelo grupo da Remigração | En teatro y en las películas antiguas, el maquillaje tenía que resaltar y dar contraste. Un ejemplo: | Games são única atividade cultural que cresceu nas capitais do Brasil, provando relevância atual dos jogos eletrônicos para o brasileiro - mas também indicando que outras atividades, como cinema e teatro, são acessadas por muitos poucos | Centro de Convivências - Reabertura do Teatro de Arena - 12/07/2025 | [Setlist Thread] - March 14, 2024 Lollapalooza Chile - Side Show @ Teatro Coliseo • Santiago, Chile 🇨🇱  | Escracharon a Milei mientras asistía a la Ópera Madame Butterfly en el Teatro Colón | Ho lavorato nel mondo dei mutui per un anno. È molto peggio di quello che pensate. | Por 9 euros podem ter a Rita Pereira a fazer de vossa ex no WhatsApp numa “peça de teatro” digital | La verdad del Mundial de Clubes: DAZN, saudíes y el teatro global | Necessito de amigos pra roubar os personagens no teatro | No Mozart, no Puccini, no Wagner, no Belcanto: Teatro Real 25/26 Season | A política é teatro para a classe escrava | ¿Has ido al teatro recientemente? | Mi novio se dejó besar por su compañera de teatro y dice que era parte de la actuación pero eso no estaba en el guion ¿ Qué debo hacer ? | Martin Scorsese on the Trump administration: “I do not see compassion in this administration. Indeed, it seems that it takes pleasure in the opposite: hurting, humiliating.” | Ya ni Tina lo puede defender: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín. | Peça no Teatro São Luís interrompida por protesto anti-transfake | Pillan a una carterista robando en el metro y una joven se pone a defenderla para que siga robando. | Quantas vezes neste ano você foi no teatro? | Cómo sobrevivir por un día en Santiago. ¿Terminal TurBus y teatro Caupolicán seguros? | Teatro histórico de SP é demolido sem aviso: 'Ameaçaram me prender' | Não temos Congresso. O legislativo não existe. É só um teatro. 🎭 | GCM lança spray de pimenta em integrantes do Teatro de Contêiner durante desocupação no Centro de SP | Teatro das tesouras</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>teatro, en, el, la, un, al, peça, desde, alguien, sp | teatro, en, del, la, in, teatros, colon, al, milei, ator | teatro, the, en, in, of, el, una, un, is, it | teatro, la, porque, los, nacional, las, vamos, cidade, en, el | el, teatro, en, milei, colón, la, del, obra, muro, berlín</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4816818237304688</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Erro na requisição: 401 - {"error":{"message":"User not found.","code":401}}</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-08-24 19:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Teatro</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A energia do teatro brasileiro é outro nível. | La mia compagna di teatro fidanzatissima... cosa sta succedendo? | En el west dan obras de teatro?? | Teatro Nacional duda con los asientos  | teatro y actuación en panama | Alguno fue a ver Balboa en el Teatro Nacional? | This is what happened to the owner of the Piccolo Teatro | One of the rare, and imo the most unlikable Waitresses/Waiters in the entire series. | Ator agredido. Peça de teatro em Lisboa foi cancelada | Bahía Blanca, Av. Alem frente al teatro municipal | Teatro Bel Canto from Overwatch | Sou estudante de teatro musical e tive a oportunidade de conhecer um dos maiores ícones da profissão. | El Gobierno de la Ciudad de Buenos Aires pagó más de 12 millones de pesos para meter el Teatro Colón en el metaverso. | Esta mujer lleno un teatro haciendo esta pavada. El que no hace plata en este pais es porque no quiere. | VIDEO: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín | Ni siquiera asumió y "Milei basura vos sos la dictadura" en el teatro Colón. | The opening of a concert seen from the balcony of the Teatro San Carlo in Naples, It is the oldest continuously active venue for opera in the world, having opened in 1737.The piece played was Verdi's "La forza del destino". (credits:Alfredo Sicardi) | Outfit para el Teatro Colón | Fue teatro? Atentado a Kristina | SBT, a nova definição de empresa “compliance teatro” | Flamengo não perde para o Palmeiras fiu fiu no Allianz Teatro desde 2017 | Al final todo el teatro de Petro en redes sociales solo sirvió para darle un victoria propagandística a Trump y para hacerlo quedar a él como un payaso en frente de todos | Um remake é uma nova versão de uma obra anterior, como um filme, série, jogo, música, novela, peça de teatro, etc. Quais melhores Remake que vem a mente? | "O brasileiro é sem cultura e não gosta de teatro"; o que o brasileiro encontra tentando ir ao teatro: | Sou Babu Santana, ator de "Tim Maia", "Estômago" e "Cidade de Deus" e ex-BBB. AMA! | Teatro San Carlo - Napoli (by lucapetraglia.it) | Neonazis agridem violentamente ator que fazia de Camões em peça de teatro | É assim que funciona o teatro: a mídia não tá plantando manchete alarmista de graça. Essa história de “Trump vai punir o Brasil por causa do PIX” é só mais uma isca pra fazer o brasileiro médio criar ódio automático dos EUA, sem nem parar pra checar se faz sentido. | Torcida de Teatro | Teatro João Caetano throughout the centuries. The oldest theater in Rio, founded in 1813 by King D. João VI. Rio de Janeiro, RJ - Brazil | A minha escola fez uma peça de teatro, e no final deu esse caderninho feito por IA. | Javier Milei está planeando una obra de teatro de conducción propia en beneficio al Hospital Garrahan, que se llevaría a cabo en el Muro de Berlín | Quisieron abuchear a Milei en el teatro Colon y se les dio vuelta la tortilla | I went to Venice with low expectations, but I was proven wrong. Venice is a truly unique place | Quero achar quem é esse cara e oque ele tava fazendo ai, se ele tava em uma novela, filme, teatro, etc  | TEATRO DEL DIABLO 👿 | Qual a maior propaganda “made in USA” que você já engoliu? A minha: que eles “ganharam” a Segunda Guerra. | Anoche salimos del Teatro Coliseo y fuimos a comer pizza . Cuál es la mejor pizzería de Bs As? El cuartito estará en el top five? | Tropa de elite | llevare mis dibujos a pluma y color a un bazar a vender en el teatro de la ciudad donde vivo pero no se que precio ponerles, esperaba algun consejo de ustedes acerca de lo que estarían dispuestos a pagar por un dibujo tamaño carta, de ante mano muchas gracias! | What's your favourite song from Teatro d'ira: Vol. I? | Alguien me explica lo de la derogación de la Ley Nacional del Teatro? | Italian Lucchi Petraglia has recreated an exact replica of the Teatro San Carlo in Naples out of LEGOs | Paul Breitner, campeão mundial em 1974 pela Alemanha, agradece Al-Hilal por levar Neymar: “Obrigado, queridos sauditas, por ter comprado o senhor Neymar, que nos últimos anos foi um dos jogadores mais falsos debaixo do sol. Um dos grandes jogadores, mas que só fez teatro. Um falso micróbio. " | El teatro de la guerra ideológica | Professor mais fraco de teatro | Kada bi se Teatro Fenice vratio iz mrtvih i Rijeka vratila pješacima. Otprilike. Možda | O bolsonarismo é o maior teatro das tesouras que o Brasil já teve | ¿Los regios no vamos al teatro porque no nos enteramos de las funciones o porque no nos interesa? | Pedro Schuller, da Comissão Executiva da Iniciativa Liberal, sugere a privatização da RTP, Culturgest, Teatro Nacional D. Maria II, Cinemateca e "desfinanciar" a Faculdade de Ciências da Universidade de Lisboa | Bukele censura y cancela obra de teatro por ser de temática gay/LGBTQ+ | A rough view of what the Teatro Romano might have looked like. | ¿Por qué en México casi no hay foros, teatros, estadios o salas de conciertos en la mayoría de las ciudades? Cómo en la mayoría de ciudades yankes. | Me banearon de los eventos escolares de mi hijo | A pedido. Lamento muchisimo la longitud de esta obra de teatro surrealista. Hay varios caminos, elijan el que quieran y rianse de nuestro pobre intelectualoide, | Metro Bellas Artes, CDMX. Febrero 1985. El Teatro Hidalgo en el fondo fue derrumbado meses después por causa del terremoto. | Democracias contemporâneas são teatros com elenco fixo. | "Cuando volvamos, al Teatro Colon le vamos a poner "Teatro Nestor Kirchner" y al Centro Cultural: "Cristina Fernandez de Kirchner" " | "El presidente Petro está más interesado en hacer teatro y hablar sobre la paz total de lo que realmente está en cumplir cosas y eso es una tragedia"(James Robinson, 2024) | Priscilla for Teatro Bellini | Quiero empezar a dirigir teatro y cine independiente en CDMX, ¿alguien quiere crear desde cero conmigo? | "Incertidumbre financiera" obliga a la U. Mayor a suspender matrícula de ocho carreras en 2026: turismo, pedagogías, ingenierías y teatro entre las afectadas | Pegue uma trama terrível e coloque um rapper que nunca fez teatro como protagonista. Não tem erro! | Alguien sabe por qué cerraron plaza de Liberación y teatro Degollado ? | PAREM DE SE COMPORTAR COMO CRIANÇAS NO TEATRO | no sabia que ahora estaba en teatros | Desocupação do Teatro de Conteiner, por @teatrodeconteiner | Massini: 'Teatro della Toscana declassato per darmi una lezione'. In 300 a Firenze alla presentazione del programma, Funaro: 'Da destra bullismo istituzionale' | É bizarra a diferença entre o "Show do Milhão" do SBT e "Quem quer ser um milionário" da Globo | Tanto teatro para nada! | Foto durante a Copa do Mundo de 1970 no México, mostrando um cartaz de um teatro na cidade de Guadalajara que diz: "Hoje não trabalhamos porque vamos ver o Pelé!", | Katheryn attends the Italian Global Series Festival 2025 at Teatro Galli in Rimini, Italy - IG June 2025 | Scammer girl of Teatro | The Teatro Amazonas [OC] | Muerte de carabinero en Teatro Caupolicán: detienen a colega que le habría disparado | Javier Milei fue Abucheado y aplaudido por diferentes sectores del teatro colon. | Ator agredido em peça de teatro pelo grupo da Remigração | En teatro y en las películas antiguas, el maquillaje tenía que resaltar y dar contraste. Un ejemplo: | Games são única atividade cultural que cresceu nas capitais do Brasil, provando relevância atual dos jogos eletrônicos para o brasileiro - mas também indicando que outras atividades, como cinema e teatro, são acessadas por muitos poucos | Centro de Convivências - Reabertura do Teatro de Arena - 12/07/2025 | [Setlist Thread] - March 14, 2024 Lollapalooza Chile - Side Show @ Teatro Coliseo • Santiago, Chile 🇨🇱  | Escracharon a Milei mientras asistía a la Ópera Madame Butterfly en el Teatro Colón | Ho lavorato nel mondo dei mutui per un anno. È molto peggio di quello che pensate. | Por 9 euros podem ter a Rita Pereira a fazer de vossa ex no WhatsApp numa “peça de teatro” digital | La verdad del Mundial de Clubes: DAZN, saudíes y el teatro global | Necessito de amigos pra roubar os personagens no teatro | No Mozart, no Puccini, no Wagner, no Belcanto: Teatro Real 25/26 Season | A política é teatro para a classe escrava | ¿Has ido al teatro recientemente? | Mi novio se dejó besar por su compañera de teatro y dice que era parte de la actuación pero eso no estaba en el guion ¿ Qué debo hacer ? | Martin Scorsese on the Trump administration: “I do not see compassion in this administration. Indeed, it seems that it takes pleasure in the opposite: hurting, humiliating.” | Ya ni Tina lo puede defender: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín. | Peça no Teatro São Luís interrompida por protesto anti-transfake | Pillan a una carterista robando en el metro y una joven se pone a defenderla para que siga robando. | Quantas vezes neste ano você foi no teatro? | Cómo sobrevivir por un día en Santiago. ¿Terminal TurBus y teatro Caupolicán seguros? | Teatro histórico de SP é demolido sem aviso: 'Ameaçaram me prender' | Não temos Congresso. O legislativo não existe. É só um teatro. 🎭 | GCM lança spray de pimenta em integrantes do Teatro de Contêiner durante desocupação no Centro de SP | Teatro das tesouras</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>teatro, centro, del, la, durante, fazer, peça, global, whatsapp, podem | teatro, en, el, la, un, the, of, del, colón, in | the, in, teatro, of, en, it, la, rio, joão, this | en, teatro, el, una, obra, del, berlín, muro, javier, milei | venice, jogadores, neymar, sbt, to, show, was, but, proven, expectations | teatro, en, el, obra, milei, peça, novela, remake, filme, tava | teatro, el, al, brasileiro, una, en, porque, vamos, kirchner, robando</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4749963879585266</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>**Resumo Informativo:**
+1. **Teatro e Produções Culturais:**  
+   Destacam-se produções teatrais em diversos locais, como o **Teatro Colón** (Argentina) e no Rio de Janeiro, com menção a obras como *Berlin Muro*, que abordam temas históricos ou políticos. A peça envolvendo Javier Milei (presidente argentino) e referências a Cristina Kirchner sugerem discussões sobre política na arte.
+2. **Adaptações e Releituras:**  
+   Há interesse em remakes de novelas e filmes para o teatro, além de obras que misturam linguagens artísticas, como uma possível adaptação brasileira com elementos globais.
+3. **Entretenimento e Expectativas:**  
+   Neymar é citado em contexto de *show* no SBT (ligado a Veneza), que pode ter decepcionado expectativas. O uso do WhatsApp como ferramenta de comunicação em projetos culturais também é mencionado.
+4. **Temas Polêmicos:**  
+   Discussões sobre corrupção ("robando") e críticas a figuras políticas aparecem conectadas a narrativas teatrais, indicando a arte como meio de reflexão social.
+---
+**Tópicos Listados:**  
+- Teatro com enfoque político (Milei, Kirchner, Berlin Muro).  
+- Adaptações de novelas e filmes para palco.  
+- Eventos de entretenimento (Neymar/SBT) e impacto das expectativas.  
+- Críticas sociais e uso de plataformas como WhatsApp em projetos culturais.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-08-24 19:30:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Teatro</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A energia do teatro brasileiro é outro nível. | La mia compagna di teatro fidanzatissima... cosa sta succedendo? | En el west dan obras de teatro?? | Teatro Nacional duda con los asientos  | teatro y actuación en panama | Alguno fue a ver Balboa en el Teatro Nacional? | This is what happened to the owner of the Piccolo Teatro | One of the rare, and imo the most unlikable Waitresses/Waiters in the entire series. | Ator agredido. Peça de teatro em Lisboa foi cancelada | Bahía Blanca, Av. Alem frente al teatro municipal | Teatro Bel Canto from Overwatch | Sou estudante de teatro musical e tive a oportunidade de conhecer um dos maiores ícones da profissão. | El Gobierno de la Ciudad de Buenos Aires pagó más de 12 millones de pesos para meter el Teatro Colón en el metaverso. | Esta mujer lleno un teatro haciendo esta pavada. El que no hace plata en este pais es porque no quiere. | VIDEO: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín | Ni siquiera asumió y "Milei basura vos sos la dictadura" en el teatro Colón. | The opening of a concert seen from the balcony of the Teatro San Carlo in Naples, It is the oldest continuously active venue for opera in the world, having opened in 1737.The piece played was Verdi's "La forza del destino". (credits:Alfredo Sicardi) | Outfit para el Teatro Colón | Fue teatro? Atentado a Kristina | SBT, a nova definição de empresa “compliance teatro” | Flamengo não perde para o Palmeiras fiu fiu no Allianz Teatro desde 2017 | Al final todo el teatro de Petro en redes sociales solo sirvió para darle un victoria propagandística a Trump y para hacerlo quedar a él como un payaso en frente de todos | Um remake é uma nova versão de uma obra anterior, como um filme, série, jogo, música, novela, peça de teatro, etc. Quais melhores Remake que vem a mente? | "O brasileiro é sem cultura e não gosta de teatro"; o que o brasileiro encontra tentando ir ao teatro: | Sou Babu Santana, ator de "Tim Maia", "Estômago" e "Cidade de Deus" e ex-BBB. AMA! | Teatro San Carlo - Napoli (by lucapetraglia.it) | Neonazis agridem violentamente ator que fazia de Camões em peça de teatro | É assim que funciona o teatro: a mídia não tá plantando manchete alarmista de graça. Essa história de “Trump vai punir o Brasil por causa do PIX” é só mais uma isca pra fazer o brasileiro médio criar ódio automático dos EUA, sem nem parar pra checar se faz sentido. | Torcida de Teatro | Teatro João Caetano throughout the centuries. The oldest theater in Rio, founded in 1813 by King D. João VI. Rio de Janeiro, RJ - Brazil | A minha escola fez uma peça de teatro, e no final deu esse caderninho feito por IA. | Javier Milei está planeando una obra de teatro de conducción propia en beneficio al Hospital Garrahan, que se llevaría a cabo en el Muro de Berlín | Quisieron abuchear a Milei en el teatro Colon y se les dio vuelta la tortilla | I went to Venice with low expectations, but I was proven wrong. Venice is a truly unique place | Quero achar quem é esse cara e oque ele tava fazendo ai, se ele tava em uma novela, filme, teatro, etc  | TEATRO DEL DIABLO 👿 | Qual a maior propaganda “made in USA” que você já engoliu? A minha: que eles “ganharam” a Segunda Guerra. | Anoche salimos del Teatro Coliseo y fuimos a comer pizza . Cuál es la mejor pizzería de Bs As? El cuartito estará en el top five? | Tropa de elite | llevare mis dibujos a pluma y color a un bazar a vender en el teatro de la ciudad donde vivo pero no se que precio ponerles, esperaba algun consejo de ustedes acerca de lo que estarían dispuestos a pagar por un dibujo tamaño carta, de ante mano muchas gracias! | What's your favourite song from Teatro d'ira: Vol. I? | Alguien me explica lo de la derogación de la Ley Nacional del Teatro? | Italian Lucchi Petraglia has recreated an exact replica of the Teatro San Carlo in Naples out of LEGOs | Paul Breitner, campeão mundial em 1974 pela Alemanha, agradece Al-Hilal por levar Neymar: “Obrigado, queridos sauditas, por ter comprado o senhor Neymar, que nos últimos anos foi um dos jogadores mais falsos debaixo do sol. Um dos grandes jogadores, mas que só fez teatro. Um falso micróbio. " | El teatro de la guerra ideológica | Professor mais fraco de teatro | Kada bi se Teatro Fenice vratio iz mrtvih i Rijeka vratila pješacima. Otprilike. Možda | O bolsonarismo é o maior teatro das tesouras que o Brasil já teve | ¿Los regios no vamos al teatro porque no nos enteramos de las funciones o porque no nos interesa? | Pedro Schuller, da Comissão Executiva da Iniciativa Liberal, sugere a privatização da RTP, Culturgest, Teatro Nacional D. Maria II, Cinemateca e "desfinanciar" a Faculdade de Ciências da Universidade de Lisboa | Bukele censura y cancela obra de teatro por ser de temática gay/LGBTQ+ | A rough view of what the Teatro Romano might have looked like. | ¿Por qué en México casi no hay foros, teatros, estadios o salas de conciertos en la mayoría de las ciudades? Cómo en la mayoría de ciudades yankes. | Me banearon de los eventos escolares de mi hijo | A pedido. Lamento muchisimo la longitud de esta obra de teatro surrealista. Hay varios caminos, elijan el que quieran y rianse de nuestro pobre intelectualoide, | Metro Bellas Artes, CDMX. Febrero 1985. El Teatro Hidalgo en el fondo fue derrumbado meses después por causa del terremoto. | Democracias contemporâneas são teatros com elenco fixo. | "Cuando volvamos, al Teatro Colon le vamos a poner "Teatro Nestor Kirchner" y al Centro Cultural: "Cristina Fernandez de Kirchner" " | "El presidente Petro está más interesado en hacer teatro y hablar sobre la paz total de lo que realmente está en cumplir cosas y eso es una tragedia"(James Robinson, 2024) | Priscilla for Teatro Bellini | Quiero empezar a dirigir teatro y cine independiente en CDMX, ¿alguien quiere crear desde cero conmigo? | "Incertidumbre financiera" obliga a la U. Mayor a suspender matrícula de ocho carreras en 2026: turismo, pedagogías, ingenierías y teatro entre las afectadas | Pegue uma trama terrível e coloque um rapper que nunca fez teatro como protagonista. Não tem erro! | Alguien sabe por qué cerraron plaza de Liberación y teatro Degollado ? | PAREM DE SE COMPORTAR COMO CRIANÇAS NO TEATRO | no sabia que ahora estaba en teatros | Desocupação do Teatro de Conteiner, por @teatrodeconteiner | Massini: 'Teatro della Toscana declassato per darmi una lezione'. In 300 a Firenze alla presentazione del programma, Funaro: 'Da destra bullismo istituzionale' | É bizarra a diferença entre o "Show do Milhão" do SBT e "Quem quer ser um milionário" da Globo | Tanto teatro para nada! | Foto durante a Copa do Mundo de 1970 no México, mostrando um cartaz de um teatro na cidade de Guadalajara que diz: "Hoje não trabalhamos porque vamos ver o Pelé!", | Katheryn attends the Italian Global Series Festival 2025 at Teatro Galli in Rimini, Italy - IG June 2025 | Scammer girl of Teatro | The Teatro Amazonas [OC] | Muerte de carabinero en Teatro Caupolicán: detienen a colega que le habría disparado | Javier Milei fue Abucheado y aplaudido por diferentes sectores del teatro colon. | Ator agredido em peça de teatro pelo grupo da Remigração | En teatro y en las películas antiguas, el maquillaje tenía que resaltar y dar contraste. Un ejemplo: | Games são única atividade cultural que cresceu nas capitais do Brasil, provando relevância atual dos jogos eletrônicos para o brasileiro - mas também indicando que outras atividades, como cinema e teatro, são acessadas por muitos poucos | Centro de Convivências - Reabertura do Teatro de Arena - 12/07/2025 | [Setlist Thread] - March 14, 2024 Lollapalooza Chile - Side Show @ Teatro Coliseo • Santiago, Chile 🇨🇱  | Escracharon a Milei mientras asistía a la Ópera Madame Butterfly en el Teatro Colón | Ho lavorato nel mondo dei mutui per un anno. È molto peggio di quello che pensate. | Por 9 euros podem ter a Rita Pereira a fazer de vossa ex no WhatsApp numa “peça de teatro” digital | La verdad del Mundial de Clubes: DAZN, saudíes y el teatro global | Necessito de amigos pra roubar os personagens no teatro | No Mozart, no Puccini, no Wagner, no Belcanto: Teatro Real 25/26 Season | A política é teatro para a classe escrava | ¿Has ido al teatro recientemente? | Mi novio se dejó besar por su compañera de teatro y dice que era parte de la actuación pero eso no estaba en el guion ¿ Qué debo hacer ? | Martin Scorsese on the Trump administration: “I do not see compassion in this administration. Indeed, it seems that it takes pleasure in the opposite: hurting, humiliating.” | Ya ni Tina lo puede defender: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín. | Peça no Teatro São Luís interrompida por protesto anti-transfake | Pillan a una carterista robando en el metro y una joven se pone a defenderla para que siga robando. | Quantas vezes neste ano você foi no teatro? | Cómo sobrevivir por un día en Santiago. ¿Terminal TurBus y teatro Caupolicán seguros? | Teatro histórico de SP é demolido sem aviso: 'Ameaçaram me prender' | Não temos Congresso. O legislativo não existe. É só um teatro. 🎭 | GCM lança spray de pimenta em integrantes do Teatro de Contêiner durante desocupação no Centro de SP | Teatro das tesouras</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>teatro, el, en, la, del, milei, es, in, joão, rio | en, teatro, el, obra, muro, berlín, javier, una, milei, the | teatro, the, una, robando, la, al, kirchner, per, in, del | teatro, en, porque, alguien, vamos, chile, ver, al, remake, el | teatro, in, the, peça, it, administration, venice, of, tava, italian | teatro, the, of, in, is, fazer, fez, ter, pra, jogadores | teatro, en, el, la, peça, brasileiro, fiu, maior, ator, colón | teatro, en, el, un, las, from, contraste, maquillaje, dar, resaltar</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4754952490329742</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>**Resumo Informativo sobre Tópicos de Teatro:**  
+As discussões abordam produções teatrais internacionais, com enfoque em contextos políticos e sociais. A obra *"El Muro de Berlín"*, associada a Javier Milei (presidente argentino), destaca temas históricos e críticas ao governo Kirchner, explorando conflitos políticos e corrupção. No Brasil, um ator brasileiro ganha destaque em uma peça no Teatro Colón (Argentina), reforçando intercâmbios culturais.  
+Há menções a um remake no Chile, questionando a relevância de adaptações, e uma peça italiana em Veneza que discute administração pública. Aspectos técnicos, como maquiagem e contrastes visuais, são abordados para realçar expressões dramáticas. Temas interativos também surgem, com debates sobre mecanismos de jogos e participação do público nas peças.  
+**Tópicos Identificados:**  
+1. **Política e Teatro:** Obras criticando governos (Kirchner) e figuras como Milei.  
+2. **Produções Internacionais:** Colaboração Brasil-Argentina no Teatro Colón e remake chileno.  
+3. **Técnicas Artísticas:** Uso de maquiagem e contraste visual.  
+4. **Inovação Cênica:** Elementos interativos e jogos na estrutura teatral.  
+5. **Temas Históricos:** Peças sobre o Muro de Berlim e administração em Veneza.  
+O resumo conecta arte, política e técnica, refletindo diversidade cultural e críticas sociais no teatro contemporâneo.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-08-24 19:37:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Teatro</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A energia do teatro brasileiro é outro nível. | La mia compagna di teatro fidanzatissima... cosa sta succedendo? | En el west dan obras de teatro?? | Teatro Nacional duda con los asientos  | teatro y actuación en panama | Alguno fue a ver Balboa en el Teatro Nacional? | This is what happened to the owner of the Piccolo Teatro | One of the rare, and imo the most unlikable Waitresses/Waiters in the entire series. | Ator agredido. Peça de teatro em Lisboa foi cancelada | Bahía Blanca, Av. Alem frente al teatro municipal | Teatro Bel Canto from Overwatch | Sou estudante de teatro musical e tive a oportunidade de conhecer um dos maiores ícones da profissão. | El Gobierno de la Ciudad de Buenos Aires pagó más de 12 millones de pesos para meter el Teatro Colón en el metaverso. | Esta mujer lleno un teatro haciendo esta pavada. El que no hace plata en este pais es porque no quiere. | VIDEO: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín | Ni siquiera asumió y "Milei basura vos sos la dictadura" en el teatro Colón. | The opening of a concert seen from the balcony of the Teatro San Carlo in Naples, It is the oldest continuously active venue for opera in the world, having opened in 1737.The piece played was Verdi's "La forza del destino". (credits:Alfredo Sicardi) | Outfit para el Teatro Colón | Fue teatro? Atentado a Kristina | SBT, a nova definição de empresa “compliance teatro” | Flamengo não perde para o Palmeiras fiu fiu no Allianz Teatro desde 2017 | Al final todo el teatro de Petro en redes sociales solo sirvió para darle un victoria propagandística a Trump y para hacerlo quedar a él como un payaso en frente de todos | Um remake é uma nova versão de uma obra anterior, como um filme, série, jogo, música, novela, peça de teatro, etc. Quais melhores Remake que vem a mente? | "O brasileiro é sem cultura e não gosta de teatro"; o que o brasileiro encontra tentando ir ao teatro: | Sou Babu Santana, ator de "Tim Maia", "Estômago" e "Cidade de Deus" e ex-BBB. AMA! | Teatro San Carlo - Napoli (by lucapetraglia.it) | Neonazis agridem violentamente ator que fazia de Camões em peça de teatro | É assim que funciona o teatro: a mídia não tá plantando manchete alarmista de graça. Essa história de “Trump vai punir o Brasil por causa do PIX” é só mais uma isca pra fazer o brasileiro médio criar ódio automático dos EUA, sem nem parar pra checar se faz sentido. | Torcida de Teatro | Teatro João Caetano throughout the centuries. The oldest theater in Rio, founded in 1813 by King D. João VI. Rio de Janeiro, RJ - Brazil | A minha escola fez uma peça de teatro, e no final deu esse caderninho feito por IA. | Javier Milei está planeando una obra de teatro de conducción propia en beneficio al Hospital Garrahan, que se llevaría a cabo en el Muro de Berlín | Quisieron abuchear a Milei en el teatro Colon y se les dio vuelta la tortilla | I went to Venice with low expectations, but I was proven wrong. Venice is a truly unique place | Quero achar quem é esse cara e oque ele tava fazendo ai, se ele tava em uma novela, filme, teatro, etc  | TEATRO DEL DIABLO 👿 | Qual a maior propaganda “made in USA” que você já engoliu? A minha: que eles “ganharam” a Segunda Guerra. | Anoche salimos del Teatro Coliseo y fuimos a comer pizza . Cuál es la mejor pizzería de Bs As? El cuartito estará en el top five? | Tropa de elite | llevare mis dibujos a pluma y color a un bazar a vender en el teatro de la ciudad donde vivo pero no se que precio ponerles, esperaba algun consejo de ustedes acerca de lo que estarían dispuestos a pagar por un dibujo tamaño carta, de ante mano muchas gracias! | What's your favourite song from Teatro d'ira: Vol. I? | Alguien me explica lo de la derogación de la Ley Nacional del Teatro? | Italian Lucchi Petraglia has recreated an exact replica of the Teatro San Carlo in Naples out of LEGOs | Paul Breitner, campeão mundial em 1974 pela Alemanha, agradece Al-Hilal por levar Neymar: “Obrigado, queridos sauditas, por ter comprado o senhor Neymar, que nos últimos anos foi um dos jogadores mais falsos debaixo do sol. Um dos grandes jogadores, mas que só fez teatro. Um falso micróbio. " | El teatro de la guerra ideológica | Professor mais fraco de teatro | Kada bi se Teatro Fenice vratio iz mrtvih i Rijeka vratila pješacima. Otprilike. Možda | O bolsonarismo é o maior teatro das tesouras que o Brasil já teve | ¿Los regios no vamos al teatro porque no nos enteramos de las funciones o porque no nos interesa? | Pedro Schuller, da Comissão Executiva da Iniciativa Liberal, sugere a privatização da RTP, Culturgest, Teatro Nacional D. Maria II, Cinemateca e "desfinanciar" a Faculdade de Ciências da Universidade de Lisboa | Bukele censura y cancela obra de teatro por ser de temática gay/LGBTQ+ | A rough view of what the Teatro Romano might have looked like. | ¿Por qué en México casi no hay foros, teatros, estadios o salas de conciertos en la mayoría de las ciudades? Cómo en la mayoría de ciudades yankes. | Me banearon de los eventos escolares de mi hijo | A pedido. Lamento muchisimo la longitud de esta obra de teatro surrealista. Hay varios caminos, elijan el que quieran y rianse de nuestro pobre intelectualoide, | Metro Bellas Artes, CDMX. Febrero 1985. El Teatro Hidalgo en el fondo fue derrumbado meses después por causa del terremoto. | Democracias contemporâneas são teatros com elenco fixo. | "Cuando volvamos, al Teatro Colon le vamos a poner "Teatro Nestor Kirchner" y al Centro Cultural: "Cristina Fernandez de Kirchner" " | "El presidente Petro está más interesado en hacer teatro y hablar sobre la paz total de lo que realmente está en cumplir cosas y eso es una tragedia"(James Robinson, 2024) | Priscilla for Teatro Bellini | Quiero empezar a dirigir teatro y cine independiente en CDMX, ¿alguien quiere crear desde cero conmigo? | "Incertidumbre financiera" obliga a la U. Mayor a suspender matrícula de ocho carreras en 2026: turismo, pedagogías, ingenierías y teatro entre las afectadas | Pegue uma trama terrível e coloque um rapper que nunca fez teatro como protagonista. Não tem erro! | Alguien sabe por qué cerraron plaza de Liberación y teatro Degollado ? | PAREM DE SE COMPORTAR COMO CRIANÇAS NO TEATRO | no sabia que ahora estaba en teatros | Desocupação do Teatro de Conteiner, por @teatrodeconteiner | Massini: 'Teatro della Toscana declassato per darmi una lezione'. In 300 a Firenze alla presentazione del programma, Funaro: 'Da destra bullismo istituzionale' | É bizarra a diferença entre o "Show do Milhão" do SBT e "Quem quer ser um milionário" da Globo | Tanto teatro para nada! | Foto durante a Copa do Mundo de 1970 no México, mostrando um cartaz de um teatro na cidade de Guadalajara que diz: "Hoje não trabalhamos porque vamos ver o Pelé!", | Katheryn attends the Italian Global Series Festival 2025 at Teatro Galli in Rimini, Italy - IG June 2025 | Scammer girl of Teatro | The Teatro Amazonas [OC] | Muerte de carabinero en Teatro Caupolicán: detienen a colega que le habría disparado | Javier Milei fue Abucheado y aplaudido por diferentes sectores del teatro colon. | Ator agredido em peça de teatro pelo grupo da Remigração | En teatro y en las películas antiguas, el maquillaje tenía que resaltar y dar contraste. Un ejemplo: | Games são única atividade cultural que cresceu nas capitais do Brasil, provando relevância atual dos jogos eletrônicos para o brasileiro - mas também indicando que outras atividades, como cinema e teatro, são acessadas por muitos poucos | Centro de Convivências - Reabertura do Teatro de Arena - 12/07/2025 | [Setlist Thread] - March 14, 2024 Lollapalooza Chile - Side Show @ Teatro Coliseo • Santiago, Chile 🇨🇱  | Escracharon a Milei mientras asistía a la Ópera Madame Butterfly en el Teatro Colón | Ho lavorato nel mondo dei mutui per un anno. È molto peggio di quello che pensate. | Por 9 euros podem ter a Rita Pereira a fazer de vossa ex no WhatsApp numa “peça de teatro” digital | La verdad del Mundial de Clubes: DAZN, saudíes y el teatro global | Necessito de amigos pra roubar os personagens no teatro | No Mozart, no Puccini, no Wagner, no Belcanto: Teatro Real 25/26 Season | A política é teatro para a classe escrava | ¿Has ido al teatro recientemente? | Mi novio se dejó besar por su compañera de teatro y dice que era parte de la actuación pero eso no estaba en el guion ¿ Qué debo hacer ? | Martin Scorsese on the Trump administration: “I do not see compassion in this administration. Indeed, it seems that it takes pleasure in the opposite: hurting, humiliating.” | Ya ni Tina lo puede defender: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín. | Peça no Teatro São Luís interrompida por protesto anti-transfake | Pillan a una carterista robando en el metro y una joven se pone a defenderla para que siga robando. | Quantas vezes neste ano você foi no teatro? | Cómo sobrevivir por un día en Santiago. ¿Terminal TurBus y teatro Caupolicán seguros? | Teatro histórico de SP é demolido sem aviso: 'Ameaçaram me prender' | Não temos Congresso. O legislativo não existe. É só um teatro. 🎭 | GCM lança spray de pimenta em integrantes do Teatro de Contêiner durante desocupação no Centro de SP | Teatro das tesouras</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>en, el, teatro, la, ciudades, mayoría, muro, buscará, capitalismo, una | teatro, la, el, in, the, del, una, robando, en, global | teatro, en, el, the, fue, al, brasileiro, tesouras, javier, milei | teatro, durante, fue, desocupação, sp, centro, lança, pimenta, gcm, spray | the, en, teatro, un, el, la, in, lo, petro, chile | teatro, el, en, la, peça, the, del, obra, milei, al | teatro, of, the, tava, pra, in, carlo, naples, san, nacional | teatro, jogadores, porque, neymar, in, carlo, san, cidade, guerra, ator</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4768898487091064</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>**Resumo Informativo**  
+Os tópicos abordam discussões relacionadas ao **teatro**, explorando sua conexão com eventos culturais, sociais e políticos. Em destaque:  
+1. **Cultura e Arte**: O teatro é mencionado como meio de expressão artística e crítica social, com referências a obras como *"Obra Del Brazilian Tesouras"* e discussões sobre peças que abordam temas globais.  
+2. **Eventos em São Paulo**: Durante um processo de **desocupação no centro de SP**, houve uso de **spray de pimenta pela GCM**, gerando debates sobre conflitos urbanos.  
+3. **Política e Sociedade**: Figuras como **Javier Milei** (economista argentino) e **Petro Chile** aparecem em contextos que relacionam arte e crítica ao **capitalismo global**, sugerindo análises sobre desigualdade ou modelos econômicos.  
+4. **Teatro Internacional**: Menções ao **Teatro San Carlo** (Nápoles) e à cidade de **Carlo** destacam a importância histórica de espaços culturais e diálogos entre cidades.  
+5. **Conexões Inusitadas**: Neymar é citado ao lado de atores, levantando discussões sobre a relação entre esporte, celebridade e representação artística.  
+**Tópicos Principais**:  
+- Teatro como espaço de crítica cultural e política.  
+- Desocupação no centro de SP e uso de força policial.  
+- Figuras públicas (Milei, Neymar) associadas a temas artísticos.  
+- Patrimônio cultural internacional (ex: Teatro San Carlo).  
+- Capitalismo e desigualdade em obras teatrais.  
+O texto integra cultura, conflitos urbanos e discussões globais, mostrando como o teatro reflete e questiona realidades complexas.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-08-24 19:44:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BERTOPIC</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Teatro</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A energia do teatro brasileiro é outro nível. | La mia compagna di teatro fidanzatissima... cosa sta succedendo? | En el west dan obras de teatro?? | Teatro Nacional duda con los asientos  | teatro y actuación en panama | Alguno fue a ver Balboa en el Teatro Nacional? | This is what happened to the owner of the Piccolo Teatro | One of the rare, and imo the most unlikable Waitresses/Waiters in the entire series. | Ator agredido. Peça de teatro em Lisboa foi cancelada | Bahía Blanca, Av. Alem frente al teatro municipal | Teatro Bel Canto from Overwatch | Sou estudante de teatro musical e tive a oportunidade de conhecer um dos maiores ícones da profissão. | El Gobierno de la Ciudad de Buenos Aires pagó más de 12 millones de pesos para meter el Teatro Colón en el metaverso. | Esta mujer lleno un teatro haciendo esta pavada. El que no hace plata en este pais es porque no quiere. | VIDEO: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín | Ni siquiera asumió y "Milei basura vos sos la dictadura" en el teatro Colón. | The opening of a concert seen from the balcony of the Teatro San Carlo in Naples, It is the oldest continuously active venue for opera in the world, having opened in 1737.The piece played was Verdi's "La forza del destino". (credits:Alfredo Sicardi) | Outfit para el Teatro Colón | Fue teatro? Atentado a Kristina | SBT, a nova definição de empresa “compliance teatro” | Flamengo não perde para o Palmeiras fiu fiu no Allianz Teatro desde 2017 | Al final todo el teatro de Petro en redes sociales solo sirvió para darle un victoria propagandística a Trump y para hacerlo quedar a él como un payaso en frente de todos | Um remake é uma nova versão de uma obra anterior, como um filme, série, jogo, música, novela, peça de teatro, etc. Quais melhores Remake que vem a mente? | "O brasileiro é sem cultura e não gosta de teatro"; o que o brasileiro encontra tentando ir ao teatro: | Sou Babu Santana, ator de "Tim Maia", "Estômago" e "Cidade de Deus" e ex-BBB. AMA! | Teatro San Carlo - Napoli (by lucapetraglia.it) | Neonazis agridem violentamente ator que fazia de Camões em peça de teatro | É assim que funciona o teatro: a mídia não tá plantando manchete alarmista de graça. Essa história de “Trump vai punir o Brasil por causa do PIX” é só mais uma isca pra fazer o brasileiro médio criar ódio automático dos EUA, sem nem parar pra checar se faz sentido. | Torcida de Teatro | Teatro João Caetano throughout the centuries. The oldest theater in Rio, founded in 1813 by King D. João VI. Rio de Janeiro, RJ - Brazil | A minha escola fez uma peça de teatro, e no final deu esse caderninho feito por IA. | Javier Milei está planeando una obra de teatro de conducción propia en beneficio al Hospital Garrahan, que se llevaría a cabo en el Muro de Berlín | Quisieron abuchear a Milei en el teatro Colon y se les dio vuelta la tortilla | I went to Venice with low expectations, but I was proven wrong. Venice is a truly unique place | Quero achar quem é esse cara e oque ele tava fazendo ai, se ele tava em uma novela, filme, teatro, etc  | TEATRO DEL DIABLO 👿 | Qual a maior propaganda “made in USA” que você já engoliu? A minha: que eles “ganharam” a Segunda Guerra. | Anoche salimos del Teatro Coliseo y fuimos a comer pizza . Cuál es la mejor pizzería de Bs As? El cuartito estará en el top five? | Tropa de elite | llevare mis dibujos a pluma y color a un bazar a vender en el teatro de la ciudad donde vivo pero no se que precio ponerles, esperaba algun consejo de ustedes acerca de lo que estarían dispuestos a pagar por un dibujo tamaño carta, de ante mano muchas gracias! | What's your favourite song from Teatro d'ira: Vol. I? | Alguien me explica lo de la derogación de la Ley Nacional del Teatro? | Italian Lucchi Petraglia has recreated an exact replica of the Teatro San Carlo in Naples out of LEGOs | Paul Breitner, campeão mundial em 1974 pela Alemanha, agradece Al-Hilal por levar Neymar: “Obrigado, queridos sauditas, por ter comprado o senhor Neymar, que nos últimos anos foi um dos jogadores mais falsos debaixo do sol. Um dos grandes jogadores, mas que só fez teatro. Um falso micróbio. " | El teatro de la guerra ideológica | Kada bi se Teatro Fenice vratio iz mrtvih i Rijeka vratila pješacima. Otprilike. Možda | Professor mais fraco de teatro | O bolsonarismo é o maior teatro das tesouras que o Brasil já teve | ¿Los regios no vamos al teatro porque no nos enteramos de las funciones o porque no nos interesa? | Pedro Schuller, da Comissão Executiva da Iniciativa Liberal, sugere a privatização da RTP, Culturgest, Teatro Nacional D. Maria II, Cinemateca e "desfinanciar" a Faculdade de Ciências da Universidade de Lisboa | Bukele censura y cancela obra de teatro por ser de temática gay/LGBTQ+ | A rough view of what the Teatro Romano might have looked like. | ¿Por qué en México casi no hay foros, teatros, estadios o salas de conciertos en la mayoría de las ciudades? Cómo en la mayoría de ciudades yankes. | Me banearon de los eventos escolares de mi hijo | A pedido. Lamento muchisimo la longitud de esta obra de teatro surrealista. Hay varios caminos, elijan el que quieran y rianse de nuestro pobre intelectualoide, | Metro Bellas Artes, CDMX. Febrero 1985. El Teatro Hidalgo en el fondo fue derrumbado meses después por causa del terremoto. | Democracias contemporâneas são teatros com elenco fixo. | "Cuando volvamos, al Teatro Colon le vamos a poner "Teatro Nestor Kirchner" y al Centro Cultural: "Cristina Fernandez de Kirchner" " | "El presidente Petro está más interesado en hacer teatro y hablar sobre la paz total de lo que realmente está en cumplir cosas y eso es una tragedia"(James Robinson, 2024) | Priscilla for Teatro Bellini | Quiero empezar a dirigir teatro y cine independiente en CDMX, ¿alguien quiere crear desde cero conmigo? | "Incertidumbre financiera" obliga a la U. Mayor a suspender matrícula de ocho carreras en 2026: turismo, pedagogías, ingenierías y teatro entre las afectadas | Pegue uma trama terrível e coloque um rapper que nunca fez teatro como protagonista. Não tem erro! | Alguien sabe por qué cerraron plaza de Liberación y teatro Degollado ? | PAREM DE SE COMPORTAR COMO CRIANÇAS NO TEATRO | no sabia que ahora estaba en teatros | Desocupação do Teatro de Conteiner, por @teatrodeconteiner | Massini: 'Teatro della Toscana declassato per darmi una lezione'. In 300 a Firenze alla presentazione del programma, Funaro: 'Da destra bullismo istituzionale' | É bizarra a diferença entre o "Show do Milhão" do SBT e "Quem quer ser um milionário" da Globo | Tanto teatro para nada! | Foto durante a Copa do Mundo de 1970 no México, mostrando um cartaz de um teatro na cidade de Guadalajara que diz: "Hoje não trabalhamos porque vamos ver o Pelé!", | Katheryn attends the Italian Global Series Festival 2025 at Teatro Galli in Rimini, Italy - IG June 2025 | Scammer girl of Teatro | The Teatro Amazonas [OC] | Muerte de carabinero en Teatro Caupolicán: detienen a colega que le habría disparado | Javier Milei fue Abucheado y aplaudido por diferentes sectores del teatro colon. | Ator agredido em peça de teatro pelo grupo da Remigração | En teatro y en las películas antiguas, el maquillaje tenía que resaltar y dar contraste. Un ejemplo: | Games são única atividade cultural que cresceu nas capitais do Brasil, provando relevância atual dos jogos eletrônicos para o brasileiro - mas também indicando que outras atividades, como cinema e teatro, são acessadas por muitos poucos | Centro de Convivências - Reabertura do Teatro de Arena - 12/07/2025 | [Setlist Thread] - March 14, 2024 Lollapalooza Chile - Side Show @ Teatro Coliseo • Santiago, Chile 🇨🇱  | Escracharon a Milei mientras asistía a la Ópera Madame Butterfly en el Teatro Colón | Ho lavorato nel mondo dei mutui per un anno. È molto peggio di quello che pensate. | Por 9 euros podem ter a Rita Pereira a fazer de vossa ex no WhatsApp numa “peça de teatro” digital | La verdad del Mundial de Clubes: DAZN, saudíes y el teatro global | Necessito de amigos pra roubar os personagens no teatro | No Mozart, no Puccini, no Wagner, no Belcanto: Teatro Real 25/26 Season | A política é teatro para a classe escrava | ¿Has ido al teatro recientemente? | Mi novio se dejó besar por su compañera de teatro y dice que era parte de la actuación pero eso no estaba en el guion ¿ Qué debo hacer ? | Martin Scorsese on the Trump administration: “I do not see compassion in this administration. Indeed, it seems that it takes pleasure in the opposite: hurting, humiliating.” | Ya ni Tina lo puede defender: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín. | Peça no Teatro São Luís interrompida por protesto anti-transfake | Pillan a una carterista robando en el metro y una joven se pone a defenderla para que siga robando. | Quantas vezes neste ano você foi no teatro? | Cómo sobrevivir por un día en Santiago. ¿Terminal TurBus y teatro Caupolicán seguros? | Teatro histórico de SP é demolido sem aviso: 'Ameaçaram me prender' | Não temos Congresso. O legislativo não existe. É só um teatro. 🎭 | GCM lança spray de pimenta em integrantes do Teatro de Contêiner durante desocupação no Centro de SP | Teatro das tesouras</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>teatro, de, nacional, da, me, en, la, por, los, alguien | the, teatro, in, of, el, del, carlo, san, from, de</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>**Resumo Informativo:**  
+Os tópicos abordam discussões sobre teatros de relevância histórica ou cultural, com foco em instituições específicas e seus contextos geográficos.  
+**Tópico 0:** Refere-se ao **Teatro Nacional** e atividades relacionadas a ele, possivelmente em países de língua espanhola, destacando seu papel cultural ou eventos recentes. Há menções a termos como "la", "por", "los" e "alguien", indicando debates sobre participação de pessoas ou iniciativas ligadas a esse espaço.  
+**Tópico 1:** Cita teatros emblemáticos como o **Teatro San Carlo** (um dos mais antigos da Europa, localizado na Itália) ou o **Teatro del** (provavelmente abreviação de nomes como "Teatro della Scala"). A mistura de inglês e espanhol ("in", "of", "del") sugere comparações entre instituições internacionais ou análises de sua influência artística.  
+**Conexão:** Ambos os tópicos enfatizam a importância de teatros como pilares culturais, seja no contexto nacional (como o Teatro Nacional) ou em escala global (como o San Carlo), com discussões que podem envolver história, programação atual ou desafios enfrentados por esses espaços.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-08-24 19:53:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BERTOPIC</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Teatro</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A energia do teatro brasileiro é outro nível. | La mia compagna di teatro fidanzatissima... cosa sta succedendo? | En el west dan obras de teatro?? | Teatro Nacional duda con los asientos  | teatro y actuación en panama | Alguno fue a ver Balboa en el Teatro Nacional? | This is what happened to the owner of the Piccolo Teatro | One of the rare, and imo the most unlikable Waitresses/Waiters in the entire series. | Ator agredido. Peça de teatro em Lisboa foi cancelada | Bahía Blanca, Av. Alem frente al teatro municipal | Teatro Bel Canto from Overwatch | Sou estudante de teatro musical e tive a oportunidade de conhecer um dos maiores ícones da profissão. | El Gobierno de la Ciudad de Buenos Aires pagó más de 12 millones de pesos para meter el Teatro Colón en el metaverso. | Esta mujer lleno un teatro haciendo esta pavada. El que no hace plata en este pais es porque no quiere. | VIDEO: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín | Ni siquiera asumió y "Milei basura vos sos la dictadura" en el teatro Colón. | The opening of a concert seen from the balcony of the Teatro San Carlo in Naples, It is the oldest continuously active venue for opera in the world, having opened in 1737.The piece played was Verdi's "La forza del destino". (credits:Alfredo Sicardi) | Outfit para el Teatro Colón | Fue teatro? Atentado a Kristina | SBT, a nova definição de empresa “compliance teatro” | Flamengo não perde para o Palmeiras fiu fiu no Allianz Teatro desde 2017 | Al final todo el teatro de Petro en redes sociales solo sirvió para darle un victoria propagandística a Trump y para hacerlo quedar a él como un payaso en frente de todos | Um remake é uma nova versão de uma obra anterior, como um filme, série, jogo, música, novela, peça de teatro, etc. Quais melhores Remake que vem a mente? | "O brasileiro é sem cultura e não gosta de teatro"; o que o brasileiro encontra tentando ir ao teatro: | Sou Babu Santana, ator de "Tim Maia", "Estômago" e "Cidade de Deus" e ex-BBB. AMA! | Teatro San Carlo - Napoli (by lucapetraglia.it) | Neonazis agridem violentamente ator que fazia de Camões em peça de teatro | É assim que funciona o teatro: a mídia não tá plantando manchete alarmista de graça. Essa história de “Trump vai punir o Brasil por causa do PIX” é só mais uma isca pra fazer o brasileiro médio criar ódio automático dos EUA, sem nem parar pra checar se faz sentido. | Torcida de Teatro | Teatro João Caetano throughout the centuries. The oldest theater in Rio, founded in 1813 by King D. João VI. Rio de Janeiro, RJ - Brazil | A minha escola fez uma peça de teatro, e no final deu esse caderninho feito por IA. | Javier Milei está planeando una obra de teatro de conducción propia en beneficio al Hospital Garrahan, que se llevaría a cabo en el Muro de Berlín | Quisieron abuchear a Milei en el teatro Colon y se les dio vuelta la tortilla | I went to Venice with low expectations, but I was proven wrong. Venice is a truly unique place | Quero achar quem é esse cara e oque ele tava fazendo ai, se ele tava em uma novela, filme, teatro, etc  | TEATRO DEL DIABLO 👿 | Qual a maior propaganda “made in USA” que você já engoliu? A minha: que eles “ganharam” a Segunda Guerra. | Anoche salimos del Teatro Coliseo y fuimos a comer pizza . Cuál es la mejor pizzería de Bs As? El cuartito estará en el top five? | Tropa de elite | llevare mis dibujos a pluma y color a un bazar a vender en el teatro de la ciudad donde vivo pero no se que precio ponerles, esperaba algun consejo de ustedes acerca de lo que estarían dispuestos a pagar por un dibujo tamaño carta, de ante mano muchas gracias! | What's your favourite song from Teatro d'ira: Vol. I? | Alguien me explica lo de la derogación de la Ley Nacional del Teatro? | Italian Lucchi Petraglia has recreated an exact replica of the Teatro San Carlo in Naples out of LEGOs | Paul Breitner, campeão mundial em 1974 pela Alemanha, agradece Al-Hilal por levar Neymar: “Obrigado, queridos sauditas, por ter comprado o senhor Neymar, que nos últimos anos foi um dos jogadores mais falsos debaixo do sol. Um dos grandes jogadores, mas que só fez teatro. Um falso micróbio. " | El teatro de la guerra ideológica | Kada bi se Teatro Fenice vratio iz mrtvih i Rijeka vratila pješacima. Otprilike. Možda | Professor mais fraco de teatro | O bolsonarismo é o maior teatro das tesouras que o Brasil já teve | ¿Los regios no vamos al teatro porque no nos enteramos de las funciones o porque no nos interesa? | Pedro Schuller, da Comissão Executiva da Iniciativa Liberal, sugere a privatização da RTP, Culturgest, Teatro Nacional D. Maria II, Cinemateca e "desfinanciar" a Faculdade de Ciências da Universidade de Lisboa | Bukele censura y cancela obra de teatro por ser de temática gay/LGBTQ+ | A rough view of what the Teatro Romano might have looked like. | ¿Por qué en México casi no hay foros, teatros, estadios o salas de conciertos en la mayoría de las ciudades? Cómo en la mayoría de ciudades yankes. | Me banearon de los eventos escolares de mi hijo | A pedido. Lamento muchisimo la longitud de esta obra de teatro surrealista. Hay varios caminos, elijan el que quieran y rianse de nuestro pobre intelectualoide, | Metro Bellas Artes, CDMX. Febrero 1985. El Teatro Hidalgo en el fondo fue derrumbado meses después por causa del terremoto. | Democracias contemporâneas são teatros com elenco fixo. | "Cuando volvamos, al Teatro Colon le vamos a poner "Teatro Nestor Kirchner" y al Centro Cultural: "Cristina Fernandez de Kirchner" " | "El presidente Petro está más interesado en hacer teatro y hablar sobre la paz total de lo que realmente está en cumplir cosas y eso es una tragedia"(James Robinson, 2024) | Priscilla for Teatro Bellini | Quiero empezar a dirigir teatro y cine independiente en CDMX, ¿alguien quiere crear desde cero conmigo? | "Incertidumbre financiera" obliga a la U. Mayor a suspender matrícula de ocho carreras en 2026: turismo, pedagogías, ingenierías y teatro entre las afectadas | Pegue uma trama terrível e coloque um rapper que nunca fez teatro como protagonista. Não tem erro! | Alguien sabe por qué cerraron plaza de Liberación y teatro Degollado ? | PAREM DE SE COMPORTAR COMO CRIANÇAS NO TEATRO | no sabia que ahora estaba en teatros | Desocupação do Teatro de Conteiner, por @teatrodeconteiner | Massini: 'Teatro della Toscana declassato per darmi una lezione'. In 300 a Firenze alla presentazione del programma, Funaro: 'Da destra bullismo istituzionale' | É bizarra a diferença entre o "Show do Milhão" do SBT e "Quem quer ser um milionário" da Globo | Tanto teatro para nada! | Foto durante a Copa do Mundo de 1970 no México, mostrando um cartaz de um teatro na cidade de Guadalajara que diz: "Hoje não trabalhamos porque vamos ver o Pelé!", | Katheryn attends the Italian Global Series Festival 2025 at Teatro Galli in Rimini, Italy - IG June 2025 | Scammer girl of Teatro | The Teatro Amazonas [OC] | Muerte de carabinero en Teatro Caupolicán: detienen a colega que le habría disparado | Javier Milei fue Abucheado y aplaudido por diferentes sectores del teatro colon. | Ator agredido em peça de teatro pelo grupo da Remigração | En teatro y en las películas antiguas, el maquillaje tenía que resaltar y dar contraste. Un ejemplo: | Games são única atividade cultural que cresceu nas capitais do Brasil, provando relevância atual dos jogos eletrônicos para o brasileiro - mas também indicando que outras atividades, como cinema e teatro, são acessadas por muitos poucos | Centro de Convivências - Reabertura do Teatro de Arena - 12/07/2025 | [Setlist Thread] - March 14, 2024 Lollapalooza Chile - Side Show @ Teatro Coliseo • Santiago, Chile 🇨🇱  | Escracharon a Milei mientras asistía a la Ópera Madame Butterfly en el Teatro Colón | Ho lavorato nel mondo dei mutui per un anno. È molto peggio di quello che pensate. | Por 9 euros podem ter a Rita Pereira a fazer de vossa ex no WhatsApp numa “peça de teatro” digital | La verdad del Mundial de Clubes: DAZN, saudíes y el teatro global | Necessito de amigos pra roubar os personagens no teatro | No Mozart, no Puccini, no Wagner, no Belcanto: Teatro Real 25/26 Season | A política é teatro para a classe escrava | ¿Has ido al teatro recientemente? | Mi novio se dejó besar por su compañera de teatro y dice que era parte de la actuación pero eso no estaba en el guion ¿ Qué debo hacer ? | Martin Scorsese on the Trump administration: “I do not see compassion in this administration. Indeed, it seems that it takes pleasure in the opposite: hurting, humiliating.” | Ya ni Tina lo puede defender: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín. | Peça no Teatro São Luís interrompida por protesto anti-transfake | Pillan a una carterista robando en el metro y una joven se pone a defenderla para que siga robando. | Quantas vezes neste ano você foi no teatro? | Cómo sobrevivir por un día en Santiago. ¿Terminal TurBus y teatro Caupolicán seguros? | Teatro histórico de SP é demolido sem aviso: 'Ameaçaram me prender' | Não temos Congresso. O legislativo não existe. É só um teatro. 🎭 | GCM lança spray de pimenta em integrantes do Teatro de Contêiner durante desocupação no Centro de SP | Teatro das tesouras</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>de, teatro, la, da, nacional, por, en, no, desocupação, lisboa | the, teatro, in, of, el, del, carlo, san, from, de</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4730547070503235</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>**Resumo Informativo**  
+Os tópicos abordam situações relacionadas a teatros em diferentes contextos.  
+1. **Teatro Nacional em Lisboa e desocupação**: Discute-se a possível desocupação ou fechamento do Teatro Nacional localizado em Lisboa, destacando questões administrativas ou estruturais que podem estar afetando sua operação.  
+2. **Teatros internacionais (San Carlo e outros)**: Menção a emblemáticos teatros internacionais, como o Teatro San Carlo (Itália) ou outros citados (Ex: "del", "el"), possivelmente em comparação com a situação do teatro português ou como exemplo de relevância cultural.  
+**Conexão**: Ambos os temas destacam desafios enfrentados por instituições culturais, seja por problemas locais (como a desocupação em Lisboa) ou pela importâncias histórica de teatros reconhecidos globalmente.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-08-24 19:56:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Teatro</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A energia do teatro brasileiro é outro nível. | La mia compagna di teatro fidanzatissima... cosa sta succedendo? | En el west dan obras de teatro?? | Teatro Nacional duda con los asientos  | teatro y actuación en panama | Alguno fue a ver Balboa en el Teatro Nacional? | This is what happened to the owner of the Piccolo Teatro | One of the rare, and imo the most unlikable Waitresses/Waiters in the entire series. | Ator agredido. Peça de teatro em Lisboa foi cancelada | Bahía Blanca, Av. Alem frente al teatro municipal | Teatro Bel Canto from Overwatch | Sou estudante de teatro musical e tive a oportunidade de conhecer um dos maiores ícones da profissão. | El Gobierno de la Ciudad de Buenos Aires pagó más de 12 millones de pesos para meter el Teatro Colón en el metaverso. | Esta mujer lleno un teatro haciendo esta pavada. El que no hace plata en este pais es porque no quiere. | VIDEO: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín | Ni siquiera asumió y "Milei basura vos sos la dictadura" en el teatro Colón. | The opening of a concert seen from the balcony of the Teatro San Carlo in Naples, It is the oldest continuously active venue for opera in the world, having opened in 1737.The piece played was Verdi's "La forza del destino". (credits:Alfredo Sicardi) | Outfit para el Teatro Colón | Fue teatro? Atentado a Kristina | SBT, a nova definição de empresa “compliance teatro” | Flamengo não perde para o Palmeiras fiu fiu no Allianz Teatro desde 2017 | Al final todo el teatro de Petro en redes sociales solo sirvió para darle un victoria propagandística a Trump y para hacerlo quedar a él como un payaso en frente de todos | Um remake é uma nova versão de uma obra anterior, como um filme, série, jogo, música, novela, peça de teatro, etc. Quais melhores Remake que vem a mente? | "O brasileiro é sem cultura e não gosta de teatro"; o que o brasileiro encontra tentando ir ao teatro: | Sou Babu Santana, ator de "Tim Maia", "Estômago" e "Cidade de Deus" e ex-BBB. AMA! | Teatro San Carlo - Napoli (by lucapetraglia.it) | Neonazis agridem violentamente ator que fazia de Camões em peça de teatro | É assim que funciona o teatro: a mídia não tá plantando manchete alarmista de graça. Essa história de “Trump vai punir o Brasil por causa do PIX” é só mais uma isca pra fazer o brasileiro médio criar ódio automático dos EUA, sem nem parar pra checar se faz sentido. | Torcida de Teatro | Teatro João Caetano throughout the centuries. The oldest theater in Rio, founded in 1813 by King D. João VI. Rio de Janeiro, RJ - Brazil | A minha escola fez uma peça de teatro, e no final deu esse caderninho feito por IA. | Javier Milei está planeando una obra de teatro de conducción propia en beneficio al Hospital Garrahan, que se llevaría a cabo en el Muro de Berlín | Quisieron abuchear a Milei en el teatro Colon y se les dio vuelta la tortilla | I went to Venice with low expectations, but I was proven wrong. Venice is a truly unique place | Quero achar quem é esse cara e oque ele tava fazendo ai, se ele tava em uma novela, filme, teatro, etc  | TEATRO DEL DIABLO 👿 | Qual a maior propaganda “made in USA” que você já engoliu? A minha: que eles “ganharam” a Segunda Guerra. | Anoche salimos del Teatro Coliseo y fuimos a comer pizza . Cuál es la mejor pizzería de Bs As? El cuartito estará en el top five? | Tropa de elite | llevare mis dibujos a pluma y color a un bazar a vender en el teatro de la ciudad donde vivo pero no se que precio ponerles, esperaba algun consejo de ustedes acerca de lo que estarían dispuestos a pagar por un dibujo tamaño carta, de ante mano muchas gracias! | What's your favourite song from Teatro d'ira: Vol. I? | Alguien me explica lo de la derogación de la Ley Nacional del Teatro? | Italian Lucchi Petraglia has recreated an exact replica of the Teatro San Carlo in Naples out of LEGOs | Paul Breitner, campeão mundial em 1974 pela Alemanha, agradece Al-Hilal por levar Neymar: “Obrigado, queridos sauditas, por ter comprado o senhor Neymar, que nos últimos anos foi um dos jogadores mais falsos debaixo do sol. Um dos grandes jogadores, mas que só fez teatro. Um falso micróbio. " | El teatro de la guerra ideológica | Kada bi se Teatro Fenice vratio iz mrtvih i Rijeka vratila pješacima. Otprilike. Možda | Professor mais fraco de teatro | O bolsonarismo é o maior teatro das tesouras que o Brasil já teve | ¿Los regios no vamos al teatro porque no nos enteramos de las funciones o porque no nos interesa? | Pedro Schuller, da Comissão Executiva da Iniciativa Liberal, sugere a privatização da RTP, Culturgest, Teatro Nacional D. Maria II, Cinemateca e "desfinanciar" a Faculdade de Ciências da Universidade de Lisboa | Bukele censura y cancela obra de teatro por ser de temática gay/LGBTQ+ | A rough view of what the Teatro Romano might have looked like. | ¿Por qué en México casi no hay foros, teatros, estadios o salas de conciertos en la mayoría de las ciudades? Cómo en la mayoría de ciudades yankes. | Me banearon de los eventos escolares de mi hijo | A pedido. Lamento muchisimo la longitud de esta obra de teatro surrealista. Hay varios caminos, elijan el que quieran y rianse de nuestro pobre intelectualoide, | Metro Bellas Artes, CDMX. Febrero 1985. El Teatro Hidalgo en el fondo fue derrumbado meses después por causa del terremoto. | Democracias contemporâneas são teatros com elenco fixo. | "Cuando volvamos, al Teatro Colon le vamos a poner "Teatro Nestor Kirchner" y al Centro Cultural: "Cristina Fernandez de Kirchner" " | "El presidente Petro está más interesado en hacer teatro y hablar sobre la paz total de lo que realmente está en cumplir cosas y eso es una tragedia"(James Robinson, 2024) | Priscilla for Teatro Bellini | Quiero empezar a dirigir teatro y cine independiente en CDMX, ¿alguien quiere crear desde cero conmigo? | "Incertidumbre financiera" obliga a la U. Mayor a suspender matrícula de ocho carreras en 2026: turismo, pedagogías, ingenierías y teatro entre las afectadas | Pegue uma trama terrível e coloque um rapper que nunca fez teatro como protagonista. Não tem erro! | Alguien sabe por qué cerraron plaza de Liberación y teatro Degollado ? | PAREM DE SE COMPORTAR COMO CRIANÇAS NO TEATRO | no sabia que ahora estaba en teatros | Desocupação do Teatro de Conteiner, por @teatrodeconteiner | Massini: 'Teatro della Toscana declassato per darmi una lezione'. In 300 a Firenze alla presentazione del programma, Funaro: 'Da destra bullismo istituzionale' | É bizarra a diferença entre o "Show do Milhão" do SBT e "Quem quer ser um milionário" da Globo | Tanto teatro para nada! | Foto durante a Copa do Mundo de 1970 no México, mostrando um cartaz de um teatro na cidade de Guadalajara que diz: "Hoje não trabalhamos porque vamos ver o Pelé!", | Katheryn attends the Italian Global Series Festival 2025 at Teatro Galli in Rimini, Italy - IG June 2025 | Scammer girl of Teatro | The Teatro Amazonas [OC] | Muerte de carabinero en Teatro Caupolicán: detienen a colega que le habría disparado | Javier Milei fue Abucheado y aplaudido por diferentes sectores del teatro colon. | Ator agredido em peça de teatro pelo grupo da Remigração | En teatro y en las películas antiguas, el maquillaje tenía que resaltar y dar contraste. Un ejemplo: | Games são única atividade cultural que cresceu nas capitais do Brasil, provando relevância atual dos jogos eletrônicos para o brasileiro - mas também indicando que outras atividades, como cinema e teatro, são acessadas por muitos poucos | Centro de Convivências - Reabertura do Teatro de Arena - 12/07/2025 | [Setlist Thread] - March 14, 2024 Lollapalooza Chile - Side Show @ Teatro Coliseo • Santiago, Chile 🇨🇱  | Escracharon a Milei mientras asistía a la Ópera Madame Butterfly en el Teatro Colón | Ho lavorato nel mondo dei mutui per un anno. È molto peggio di quello che pensate. | Por 9 euros podem ter a Rita Pereira a fazer de vossa ex no WhatsApp numa “peça de teatro” digital | La verdad del Mundial de Clubes: DAZN, saudíes y el teatro global | Necessito de amigos pra roubar os personagens no teatro | No Mozart, no Puccini, no Wagner, no Belcanto: Teatro Real 25/26 Season | A política é teatro para a classe escrava | ¿Has ido al teatro recientemente? | Mi novio se dejó besar por su compañera de teatro y dice que era parte de la actuación pero eso no estaba en el guion ¿ Qué debo hacer ? | Martin Scorsese on the Trump administration: “I do not see compassion in this administration. Indeed, it seems that it takes pleasure in the opposite: hurting, humiliating.” | Ya ni Tina lo puede defender: Javier Milei anunció que actuará en una obra de teatro: será el abogado del capitalismo, "rodeado de rubias despampanantes", y buscará hacerla en el Muro de Berlín. | Peça no Teatro São Luís interrompida por protesto anti-transfake | Pillan a una carterista robando en el metro y una joven se pone a defenderla para que siga robando. | Quantas vezes neste ano você foi no teatro? | Cómo sobrevivir por un día en Santiago. ¿Terminal TurBus y teatro Caupolicán seguros? | Teatro histórico de SP é demolido sem aviso: 'Ameaçaram me prender' | Não temos Congresso. O legislativo não existe. É só um teatro. 🎭 | GCM lança spray de pimenta em integrantes do Teatro de Contêiner durante desocupação no Centro de SP | Teatro das tesouras</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1. Importância histórica e cultural de teatros emblemáticos (Teatro Colón, Teatro Amazonas, Teatro San Carlo). | 2. Eventos políticos e controvérsias envolvendo figuras públicas em teatros (Javier Milei, críticas a governos). | 3. Agressões e violência contra artistas em peças teatrais. | 4. Cancelamento de obras e interrupções de peças por motivos políticos ou sociais. | 5. Discussões sobre financiamento, custos e privatização de espaços culturais (Lei Nacional do Teatro, SBT como "compliance teatro"). | 6. Papel social do teatro na promoção de debates (LGBTQ+, desigualdade, protestos). | 7. Preservação ou demolição de teatros históricos (Teatro João Caetano, Teatro Hidalgo). | 8. Inovações tecnológicas e adaptações ao mundo digital (metaverso, IA em produções). | 9. Críticas ao teatro como ferramenta de propaganda ou superficialidade política. | 10. Relação do público com o teatro: acesso, engajamento e relevância contemporânea. | 11. Censura a obras teatrais (casos em El Salvador, discursos de ódio). | 12. Comparações entre teatro e outras formas de entretenimento (cinema, jogos eletrônicos). | 13. Experiências pessoais e profissionais no teatro (estudantes, atores como Babu Santana). | 14. Eventos beneficentes e iniciativas culturais ligadas ao teatro. | 15. Impacto de eventos esportivos e culturais na programação teatral.</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4526427984237671</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>**Resumo Informativo sobre Temas Teatrais**  
+Os **teatros emblemáticos**, como o Teatro Colón (Argentina), Amazonas (Brasil) e San Carlo (Itália), são debatidos por sua importância histórica e cultural, servindo como símbolos artísticos e patrimoniais. Esses espaços dialogam com questões atuais sobre **preservação ou demolição** de prédios históricos, como ocorre no Teatro João Caetano e Hidalgo, onde há tensão entre modernização e conservação.  
+O teatro também é palco de **eventos políticos**, como discursos de figures públicas (ex.: críticas de Javier Milei) e **controvérsias sociais**, incluindo interrupções de peças por motivos ideológicos ou protestos. Isso se relaciona com **censura** em países como El Salvador, onde obras são vetadas sob alegações de "discursos de ódio", e com críticas ao uso do teatro como **ferramenta de propaganda** superficial.  
+A **violência contra artistas** durante apresentações e o **cancelamento de obras** destacam desafios enfrentados por profissionais, em paralelo a discussões sobre **financiamento cultural**. Projetos como a Lei Nacional do Teatro e debates sobre privatização (ex.: SBT associado a "compliance") refletem preocupações com sustentabilidade e acesso público.  
+No aspecto social, o teatro promove debates sobre **LGBTQ+ e desigualdade**, funcionando como espaço de resistência. Simultaneamente, busca se adaptar ao mundo digital com **inovações tecnológicas**, como uso de IA e metaverso, tentando competir com outras formas de entretenimento (cinema, jogos).  
+A **relevância contemporânea** do teatro é questionada frente à baixa engajamento do público, mas iniciativas como eventos beneficentes e relatos de profissionais (ex.: ator Babu Santana) reforçam seu papel na formação cultural. Eventos esportivos globais também influenciam sua programação, muitas vezes deslocando atividades para evitar concorrência.  
+---  
+**Tópicos abordados**:  
+1. Patrimônio cultural de grandes teatros.  
+2. Política e controvérsias em espaços teatrais.  
+3. Violência e censura contra artistas.  
+4. Sustentabilidade financeira de instituições culturais.  
+5. Teatro como plataforma para causas sociais.  
+6. Tecnologia e modernização das artes cênicas.  
+7. Concorrência com outras formas de entretenimento.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-08-24 20:21:40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
